--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_6.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8626862908984199</v>
+        <v>-0.1283255146355962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5569862084087012</v>
+        <v>-1.910858872220313</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7343112815180451</v>
+        <v>-10.89708812026705</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6544815343485773</v>
+        <v>-2.878134316471546</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1519658267498016</v>
+        <v>1.248723864555359</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5838603973388672</v>
+        <v>3.796500682830811</v>
       </c>
       <c r="H2" t="n">
-        <v>0.222122386097908</v>
+        <v>4.43040132522583</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4136307835578918</v>
+        <v>4.094807624816895</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8642488287339407</v>
+        <v>-0.1175926631363253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5667516769431851</v>
+        <v>-1.878948554820687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7404002736578373</v>
+        <v>-10.79879026942878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6621744896719046</v>
+        <v>-2.840949312628336</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1502365320920944</v>
+        <v>1.236845850944519</v>
       </c>
       <c r="G3" t="n">
-        <v>0.570990264415741</v>
+        <v>3.754881620407104</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2170318365097046</v>
+        <v>4.393795490264893</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4044212996959686</v>
+        <v>4.055545806884766</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8658962922160359</v>
+        <v>-0.1161484145237721</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5768930282539515</v>
+        <v>-1.873616565857722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7469603409971279</v>
+        <v>-10.78728694567486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6702403376139808</v>
+        <v>-2.835554898766522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14841328561306</v>
+        <v>1.235247373580933</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5576246380805969</v>
+        <v>3.747926950454712</v>
       </c>
       <c r="H4" t="n">
-        <v>0.211547464132309</v>
+        <v>4.389511585235596</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3947654366493225</v>
+        <v>4.049849510192871</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8676280699140598</v>
+        <v>-0.1001099567280483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5874009442512481</v>
+        <v>-1.87791214129056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7540967391009358</v>
+        <v>-10.41556299805001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6787111648062993</v>
+        <v>-2.77666804867948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1464967280626297</v>
+        <v>1.217497587203979</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5437759757041931</v>
+        <v>3.75352954864502</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2055812478065491</v>
+        <v>4.251084327697754</v>
       </c>
       <c r="I5" t="n">
-        <v>0.384624719619751</v>
+        <v>3.987672805786133</v>
       </c>
     </row>
     <row r="6">
@@ -606,90 +606,90 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8694185825364732</v>
+        <v>-0.08049776147066279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5982579610986238</v>
+        <v>-1.841060330504713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7612799064526834</v>
+        <v>-10.13398808235953</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6873992323470905</v>
+        <v>-2.705835971226788</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1445151418447495</v>
+        <v>1.195792555809021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5294672846794128</v>
+        <v>3.705465078353882</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1995759457349777</v>
+        <v>4.146227359771729</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3742239773273468</v>
+        <v>3.912883043289185</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_19</t>
+          <t>model_9_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8713483527480888</v>
+        <v>-0.06467367812617608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6098716909770494</v>
+        <v>-1.767760024676936</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7692573476755854</v>
+        <v>-10.05160282363792</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6967900303052565</v>
+        <v>-2.64422755500111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1423794478178024</v>
+        <v>1.178279995918274</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5141611695289612</v>
+        <v>3.60986328125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1929066032171249</v>
+        <v>4.115547657012939</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3629819750785828</v>
+        <v>3.847832679748535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_18</t>
+          <t>model_9_6_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8734585424955474</v>
+        <v>-0.05942387465466248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6222426454959812</v>
+        <v>-1.75533445498699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7779522445025331</v>
+        <v>-9.998962426948861</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7068579689025118</v>
+        <v>-2.627364559908933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1400441080331802</v>
+        <v>1.172470092773438</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4978571534156799</v>
+        <v>3.593657255172729</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1856374740600586</v>
+        <v>4.095944881439209</v>
       </c>
       <c r="I8" t="n">
-        <v>0.350929319858551</v>
+        <v>3.830027341842651</v>
       </c>
     </row>
     <row r="9">
@@ -699,493 +699,493 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8755532779439179</v>
+        <v>-0.055183459303358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6344587567857487</v>
+        <v>-1.744990195451381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7871289207906407</v>
+        <v>-9.943828209613248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7169926274784522</v>
+        <v>-2.611447205940738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1377258598804474</v>
+        <v>1.167777180671692</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4817571640014648</v>
+        <v>3.580165386199951</v>
       </c>
       <c r="H9" t="n">
-        <v>0.177965521812439</v>
+        <v>4.075413227081299</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3387968242168427</v>
+        <v>3.813220739364624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_16</t>
+          <t>model_9_6_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8777152463187692</v>
+        <v>-0.01146815703426518</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6471978448372369</v>
+        <v>-1.335638823397878</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7964746824517354</v>
+        <v>-7.694564033629213</v>
       </c>
       <c r="E10" t="n">
-        <v>0.727488507972047</v>
+        <v>-1.970440701455991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1353331953287125</v>
+        <v>1.119397163391113</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4649679958820343</v>
+        <v>3.046266794204712</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1701522469520569</v>
+        <v>3.237801313400269</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3262318670749664</v>
+        <v>3.136400938034058</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_15</t>
+          <t>model_9_6_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8799805508049816</v>
+        <v>0.03498124306223693</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6604174484554215</v>
+        <v>-1.555555065195551</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8063593328113606</v>
+        <v>-8.80460496607221</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7384420884246962</v>
+        <v>-2.29848993026276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1328261643648148</v>
+        <v>1.067991375923157</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4475454688072205</v>
+        <v>3.333094120025635</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1618884205818176</v>
+        <v>3.65117359161377</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3131189942359924</v>
+        <v>3.482778549194336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_14</t>
+          <t>model_9_6_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8822355369343333</v>
+        <v>0.07428562569929587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6736829201133663</v>
+        <v>-1.468377596766559</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8166026990422299</v>
+        <v>-8.278693297962988</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7495403810900506</v>
+        <v>-2.154193867266348</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1303305625915527</v>
+        <v>1.024492979049683</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4300625622272491</v>
+        <v>3.2193922996521</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1533247232437134</v>
+        <v>3.455327272415161</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2998329401016235</v>
+        <v>3.33042049407959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_13</t>
+          <t>model_9_6_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8846999758617611</v>
+        <v>0.08223093416710925</v>
       </c>
       <c r="C13" t="n">
-        <v>0.688160587829789</v>
+        <v>-1.456444002023354</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8274002041363331</v>
+        <v>-8.116030044379555</v>
       </c>
       <c r="E13" t="n">
-        <v>0.761526677153238</v>
+        <v>-2.119392629823556</v>
       </c>
       <c r="F13" t="n">
-        <v>0.127603143453598</v>
+        <v>1.015699982643127</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4109820127487183</v>
+        <v>3.203827619552612</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1442977339029312</v>
+        <v>3.394752502441406</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2854837477207184</v>
+        <v>3.293674945831299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_12</t>
+          <t>model_9_6_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8870511859842051</v>
+        <v>0.148237314173244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7024475902084634</v>
+        <v>-1.303569302870291</v>
       </c>
       <c r="D14" t="n">
-        <v>0.837707547953863</v>
+        <v>-7.265257234822684</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7732414017521666</v>
+        <v>-1.878216437065231</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1250010579824448</v>
+        <v>0.942650318145752</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3921527862548828</v>
+        <v>3.004440069198608</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1356805264949799</v>
+        <v>3.077930212020874</v>
       </c>
       <c r="I14" t="n">
-        <v>0.271459698677063</v>
+        <v>3.039024114608765</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_11</t>
+          <t>model_9_6_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8894486598773272</v>
+        <v>0.1919947603557329</v>
       </c>
       <c r="C15" t="n">
-        <v>0.71734578375933</v>
+        <v>-1.137688971457123</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8481626087518578</v>
+        <v>-6.923094362682461</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7853609041441403</v>
+        <v>-1.712948878186062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1223477646708488</v>
+        <v>0.8942237496376038</v>
       </c>
       <c r="G15" t="n">
-        <v>0.372518002986908</v>
+        <v>2.788089990615845</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1269398480653763</v>
+        <v>2.95051097869873</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2569510638713837</v>
+        <v>2.864522933959961</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_10</t>
+          <t>model_9_6_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8916906687320463</v>
+        <v>0.2022856442654577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7321471106410657</v>
+        <v>-1.110979519572607</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8573083856968835</v>
+        <v>-6.80781669149287</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7969926952761784</v>
+        <v>-1.67634817050734</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1198665276169777</v>
+        <v>0.8828348517417908</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3530109226703644</v>
+        <v>2.753254413604736</v>
       </c>
       <c r="H16" t="n">
-        <v>0.119293749332428</v>
+        <v>2.90758228302002</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2430262863636017</v>
+        <v>2.82587718963623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_9</t>
+          <t>model_9_6_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8938483671910273</v>
+        <v>0.2109969569673066</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7475915151767746</v>
+        <v>-1.088653773865948</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8652786006862953</v>
+        <v>-6.705064699902424</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8086135758720984</v>
+        <v>-1.644696694930119</v>
       </c>
       <c r="F17" t="n">
-        <v>0.11747857183218</v>
+        <v>0.8731938600540161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3326563239097595</v>
+        <v>2.724135637283325</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1126304492354393</v>
+        <v>2.869317770004272</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2291145920753479</v>
+        <v>2.792457342147827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_8</t>
+          <t>model_9_6_3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8958703221349019</v>
+        <v>0.2254262492117556</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7632928874457843</v>
+        <v>-1.006675850214173</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8721100401915802</v>
+        <v>-5.684244412634976</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8200095017839495</v>
+        <v>-1.421664300615271</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1152408793568611</v>
+        <v>0.8572248816490173</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3119630217552185</v>
+        <v>2.617215633392334</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1069191992282867</v>
+        <v>2.489170789718628</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2154721468687057</v>
+        <v>2.556964159011841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_7</t>
+          <t>model_9_6_9</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8977415063779224</v>
+        <v>0.2378867930180456</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7790894585504811</v>
+        <v>-1.033303568224882</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8781541745558544</v>
+        <v>-6.185898919104341</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8312025218183077</v>
+        <v>-1.522333608185216</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1131700277328491</v>
+        <v>0.843434751033783</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2911442816257477</v>
+        <v>2.651944875717163</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1018661484122276</v>
+        <v>2.675983905792236</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2020726501941681</v>
+        <v>2.663257837295532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_6</t>
+          <t>model_9_6_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8993945995585587</v>
+        <v>0.2477079273764463</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7944207270250786</v>
+        <v>-0.953950576035673</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8836709044082888</v>
+        <v>-5.676655449155457</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8419512658616202</v>
+        <v>-1.385920989355253</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1113405376672745</v>
+        <v>0.8325656652450562</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2709387540817261</v>
+        <v>2.54844856262207</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09725402295589447</v>
+        <v>2.486344814300537</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1892050057649612</v>
+        <v>2.519223928451538</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_5</t>
+          <t>model_9_6_6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9008106067932046</v>
+        <v>0.2506069678052927</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8092857729772212</v>
+        <v>-1.025611333464981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8889056614470996</v>
+        <v>-5.721743190999925</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8523355469883972</v>
+        <v>-1.440264410424478</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1097734346985817</v>
+        <v>0.8293572664260864</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2513476610183716</v>
+        <v>2.641912221908569</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09287763386964798</v>
+        <v>2.503135204315186</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1767736524343491</v>
+        <v>2.576603412628174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_4</t>
+          <t>model_9_6_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9018039185590121</v>
+        <v>0.2536279814114499</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8224597264058262</v>
+        <v>-1.013268202835603</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8939758140553931</v>
+        <v>-5.744644925929951</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8616803957971073</v>
+        <v>-1.435994831937101</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1086741238832474</v>
+        <v>0.8260138630867004</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2339853495359421</v>
+        <v>2.625813961029053</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08863886445760727</v>
+        <v>2.511663675308228</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1655866503715515</v>
+        <v>2.572095394134521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_0</t>
+          <t>model_9_6_8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9023571136331231</v>
+        <v>0.2602334689391798</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8634514522133092</v>
+        <v>-0.9825700866144043</v>
       </c>
       <c r="D23" t="n">
-        <v>0.911750750819625</v>
+        <v>-5.769112052067409</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8914127905941738</v>
+        <v>-1.419981878324873</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1080619022250175</v>
+        <v>0.8187035322189331</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1799612045288086</v>
+        <v>2.585775375366211</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07377857714891434</v>
+        <v>2.520774841308594</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1299930810928345</v>
+        <v>2.555187702178955</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_3</t>
+          <t>model_9_6_5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9025259599408926</v>
+        <v>0.270879167659998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8347740277906366</v>
+        <v>-0.9387075280484203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8989084094588209</v>
+        <v>-5.641227338695455</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8704784144435289</v>
+        <v>-1.370071646502482</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1078750416636467</v>
+        <v>0.8069219589233398</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2177559733390808</v>
+        <v>2.528567790985107</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08451508730649948</v>
+        <v>2.473151445388794</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1550542563199997</v>
+        <v>2.50248908996582</v>
       </c>
     </row>
     <row r="25">
@@ -1195,59 +1195,59 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9028443627186498</v>
+        <v>0.3754979927268688</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8552514264628825</v>
+        <v>0.4016680086832379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9080666034106941</v>
+        <v>-3.499014636768559</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8854228801318998</v>
+        <v>-0.1379872962511344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1075226590037346</v>
+        <v>0.6911396980285645</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1907682418823242</v>
+        <v>0.7803771495819092</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07685860991477966</v>
+        <v>1.675404906272888</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1371638029813766</v>
+        <v>1.20156729221344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_2</t>
+          <t>model_9_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9028758282454357</v>
+        <v>0.4409215921293985</v>
       </c>
       <c r="C26" t="n">
-        <v>0.845603837827793</v>
+        <v>0.6535744171904152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9036719170686949</v>
+        <v>-2.920473254677894</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8783558007271351</v>
+        <v>0.122768615503896</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1074878349900246</v>
+        <v>0.6187350153923035</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2034830898046494</v>
+        <v>0.4518270492553711</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08053267747163773</v>
+        <v>1.459959626197815</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1456239968538284</v>
+        <v>0.9262428283691406</v>
       </c>
     </row>
   </sheetData>
